--- a/timeTableForStu12.xlsx
+++ b/timeTableForStu12.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="252">
   <si>
     <t>我的课程表</t>
   </si>
@@ -5403,6 +5403,483 @@
   </si>
   <si>
     <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","position":"文萃楼M228"}</t>
+  </si>
+  <si>
+    <t>认识实习%!(EXTRA string=
+, string=工训楼915)</t>
+  </si>
+  <si>
+    <t>体育/太极拳[01]%!(EXTRA string=
+, string=良乡体育馆407)</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]%!(EXTRA string=
+, string=文萃楼H226良乡六号机房)</t>
+  </si>
+  <si>
+    <t>基于FPGA平台的电信传输系统设计实验[01]%!(EXTRA string=
+, string=工训楼811)</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]%!(EXTRA string=
+, string=文萃楼H125良乡二号机房)</t>
+  </si>
+  <si>
+    <t>认识实习%!(EXTRA string=
+, string=工训楼911)</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]%!(EXTRA string=
+, string=文萃楼H229良乡七号机房)</t>
+  </si>
+  <si>
+    <t>复变函数与积分变换[02]%!(EXTRA string=
+, string=文萃楼F402)</t>
+  </si>
+  <si>
+    <t>中共党史[01]%!(EXTRA string=
+, string=综教A206)</t>
+  </si>
+  <si>
+    <t>文献检索[04]%!(EXTRA string=
+, string=理教楼409)</t>
+  </si>
+  <si>
+    <t>大学物理AⅡ[18]%!(EXTRA string=
+, string=理教楼306)</t>
+  </si>
+  <si>
+    <t>体育/八段锦[02]%!(EXTRA string=
+, string=良乡体育馆407)</t>
+  </si>
+  <si>
+    <t>学术用途英语三级[02]%!(EXTRA string=
+, string=文萃楼G124)</t>
+  </si>
+  <si>
+    <t>理论力学[02]%!(EXTRA string=
+, string=文萃楼M221)</t>
+  </si>
+  <si>
+    <t>形势与政策Ⅲ[16]%!(EXTRA string=
+, string=文萃楼M134)</t>
+  </si>
+  <si>
+    <t>管理学概论[01]%!(EXTRA string=
+, string=综教A305)</t>
+  </si>
+  <si>
+    <t>数字电子技术基础B[03]%!(EXTRA string=
+, string=文萃楼F604)</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[03]%!(EXTRA string=
+, string=良乡体育馆407)</t>
+  </si>
+  <si>
+    <t>中共党史[09]%!(EXTRA string=
+, string=理教楼204)</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[04]%!(EXTRA string=
+, string=良乡体育馆212)</t>
+  </si>
+  <si>
+    <t>Python程序设计基础[01]%!(EXTRA string=
+, string=理教楼106)</t>
+  </si>
+  <si>
+    <t>体育/太极操[02]%!(EXTRA string=
+, string=良乡体育馆407)</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理[10]%!(EXTRA string=
+, string=文萃楼G125)</t>
+  </si>
+  <si>
+    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]%!(EXTRA string=
+, string=文萃楼M228)</t>
+  </si>
+  <si>
+    <t>认识实习
+工训楼915</t>
+  </si>
+  <si>
+    <t>体育/太极拳[01]
+良乡体育馆407</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]
+文萃楼H226良乡六号机房</t>
+  </si>
+  <si>
+    <t>基于FPGA平台的电信传输系统设计实验[01]
+工训楼811</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]
+文萃楼H125良乡二号机房</t>
+  </si>
+  <si>
+    <t>认识实习
+工训楼911</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]
+文萃楼H229良乡七号机房</t>
+  </si>
+  <si>
+    <t>复变函数与积分变换[02]
+文萃楼F402</t>
+  </si>
+  <si>
+    <t>中共党史[01]
+综教A206</t>
+  </si>
+  <si>
+    <t>文献检索[04]
+理教楼409</t>
+  </si>
+  <si>
+    <t>大学物理AⅡ[18]
+理教楼306</t>
+  </si>
+  <si>
+    <t>体育/八段锦[02]
+良乡体育馆407</t>
+  </si>
+  <si>
+    <t>学术用途英语三级[02]
+文萃楼G124</t>
+  </si>
+  <si>
+    <t>理论力学[02]
+文萃楼M221</t>
+  </si>
+  <si>
+    <t>形势与政策Ⅲ[16]
+文萃楼M134</t>
+  </si>
+  <si>
+    <t>管理学概论[01]
+综教A305</t>
+  </si>
+  <si>
+    <t>数字电子技术基础B[03]
+文萃楼F604</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[03]
+良乡体育馆407</t>
+  </si>
+  <si>
+    <t>中共党史[09]
+理教楼204</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[04]
+良乡体育馆212</t>
+  </si>
+  <si>
+    <t>Python程序设计基础[01]
+理教楼106</t>
+  </si>
+  <si>
+    <t>体育/太极操[02]
+良乡体育馆407</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理[10]
+文萃楼G125</t>
+  </si>
+  <si>
+    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]
+文萃楼M228</t>
+  </si>
+  <si>
+    <t>认识实习-工训楼915</t>
+  </si>
+  <si>
+    <t>体育/太极拳[01]-良乡体育馆407</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]-文萃楼H226良乡六号机房</t>
+  </si>
+  <si>
+    <t>基于FPGA平台的电信传输系统设计实验[01]-工训楼811</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]-文萃楼H125良乡二号机房</t>
+  </si>
+  <si>
+    <t>认识实习-工训楼911</t>
+  </si>
+  <si>
+    <t>工程软件与程序设计[07]-文萃楼H229良乡七号机房</t>
+  </si>
+  <si>
+    <t>复变函数与积分变换[02]-文萃楼F402</t>
+  </si>
+  <si>
+    <t>中共党史[01]-综教A206</t>
+  </si>
+  <si>
+    <t>文献检索[04]-理教楼409</t>
+  </si>
+  <si>
+    <t>大学物理AⅡ[18]-理教楼306</t>
+  </si>
+  <si>
+    <t>体育/八段锦[02]-良乡体育馆407</t>
+  </si>
+  <si>
+    <t>学术用途英语三级[02]-文萃楼G124</t>
+  </si>
+  <si>
+    <t>理论力学[02]-文萃楼M221</t>
+  </si>
+  <si>
+    <t>形势与政策Ⅲ[16]-文萃楼M134</t>
+  </si>
+  <si>
+    <t>管理学概论[01]-综教A305</t>
+  </si>
+  <si>
+    <t>数字电子技术基础B[03]-文萃楼F604</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[03]-良乡体育馆407</t>
+  </si>
+  <si>
+    <t>中共党史[09]-理教楼204</t>
+  </si>
+  <si>
+    <t>体育/太极八法五步[04]-良乡体育馆212</t>
+  </si>
+  <si>
+    <t>Python程序设计基础[01]-理教楼106</t>
+  </si>
+  <si>
+    <t>体育/太极操[02]-良乡体育馆407</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理[10]-文萃楼G125</t>
+  </si>
+  <si>
+    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]-文萃楼M228</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":1,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":2,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":3,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":4,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100320020,"name":"体育/太极拳[01]","class":1,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320020,"name":"体育/太极拳[01]","class":2,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":1,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":2,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":3,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":4,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":5,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":3,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":4,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":5,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":6,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":7,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":8,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":9,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":8,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":9,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":10,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":11,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":12,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":13,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":11,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":12,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":13,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":1,"position":"理教楼306"}</t>
+  </si>
+  <si>
+    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":2,"position":"理教楼306"}</t>
+  </si>
+  <si>
+    <t>{"id":100320045,"name":"体育/八段锦[02]","class":3,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320045,"name":"体育/八段锦[02]","class":4,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":6,"position":"文萃楼G124"}</t>
+  </si>
+  <si>
+    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":7,"position":"文萃楼G124"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":8,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":9,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":10,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":11,"position":"文萃楼M134"}</t>
+  </si>
+  <si>
+    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":12,"position":"文萃楼M134"}</t>
+  </si>
+  <si>
+    <t>{"id":100210419,"name":"管理学概论[01]","class":1,"position":"综教A305"}</t>
+  </si>
+  <si>
+    <t>{"id":100210419,"name":"管理学概论[01]","class":2,"position":"综教A305"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":3,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":4,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":5,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":6,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":7,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":11,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":12,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":13,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":6,"position":"良乡体育馆212"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":7,"position":"良乡体育馆212"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":11,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":12,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":13,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":100320042,"name":"体育/太极操[02]","class":1,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320042,"name":"体育/太极操[02]","class":2,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":8,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":9,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":10,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":1,"position":"文萃楼M228"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":2,"position":"文萃楼M228"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":3,"position":"文萃楼M228"}</t>
   </si>
 </sst>
 </file>
@@ -7048,7 +7525,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7056,22 +7533,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7079,22 +7556,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7102,19 +7579,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7122,16 +7599,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7139,13 +7616,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7153,16 +7630,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7170,16 +7647,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7187,19 +7664,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7207,19 +7684,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7227,19 +7704,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7247,16 +7724,16 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7264,16 +7741,16 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7281,13 +7758,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7330,7 +7807,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7338,22 +7815,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7361,22 +7838,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7384,19 +7861,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7404,16 +7881,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7421,13 +7898,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7435,16 +7912,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7452,16 +7929,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7469,19 +7946,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7489,19 +7966,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7509,19 +7986,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7529,16 +8006,16 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7546,10 +8023,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7557,7 +8034,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +8077,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7608,22 +8085,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7631,22 +8108,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7654,19 +8131,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7674,16 +8151,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7691,13 +8168,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,16 +8182,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7722,16 +8199,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7739,19 +8216,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7759,19 +8236,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7779,19 +8256,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7799,10 +8276,10 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7810,10 +8287,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7821,7 +8298,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7870,7 +8347,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7878,22 +8355,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7901,22 +8378,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7924,19 +8401,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7944,16 +8421,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7961,13 +8438,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7975,16 +8452,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7992,16 +8469,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8009,19 +8486,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8029,19 +8506,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8049,19 +8526,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8069,10 +8546,10 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8080,10 +8557,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8091,7 +8568,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8134,7 +8611,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8142,19 +8619,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8162,19 +8639,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8182,13 +8659,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8196,10 +8673,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8207,7 +8684,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8215,16 +8692,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8232,16 +8709,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8249,19 +8726,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8269,19 +8746,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8289,19 +8766,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8309,7 +8786,7 @@
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8317,7 +8794,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8325,7 +8802,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8368,7 +8845,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8376,19 +8853,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8396,19 +8873,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8416,13 +8893,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8430,10 +8907,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8441,7 +8918,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8449,16 +8926,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8466,16 +8943,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8483,19 +8960,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8503,19 +8980,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8523,19 +9000,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8543,7 +9020,7 @@
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8551,7 +9028,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8559,7 +9036,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8602,7 +9079,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8610,19 +9087,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8630,19 +9107,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8650,13 +9127,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8664,10 +9141,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8675,7 +9152,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8683,16 +9160,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8700,16 +9177,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8717,19 +9194,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8737,19 +9214,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8757,19 +9234,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8777,7 +9254,7 @@
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8785,7 +9262,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8793,7 +9270,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +9313,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8844,16 +9321,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8861,16 +9338,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8878,10 +9355,10 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8889,10 +9366,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8900,7 +9377,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8908,16 +9385,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8925,16 +9402,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8942,13 +9419,13 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8956,13 +9433,13 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8970,13 +9447,13 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9034,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9042,16 +9519,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9059,16 +9536,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9076,10 +9553,10 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9087,10 +9564,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9098,7 +9575,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9106,16 +9583,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9123,16 +9600,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9140,7 +9617,7 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9148,7 +9625,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9156,7 +9633,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9214,7 +9691,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9222,16 +9699,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9239,16 +9716,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9256,10 +9733,10 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9267,10 +9744,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9278,7 +9755,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9286,16 +9763,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9303,16 +9780,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9320,7 +9797,7 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9328,7 +9805,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9336,7 +9813,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9502,7 +9979,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9510,16 +9987,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9527,16 +10004,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9544,10 +10021,10 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9555,10 +10032,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9566,7 +10043,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9574,16 +10051,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9591,16 +10068,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9608,7 +10085,7 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9616,7 +10093,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9624,7 +10101,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9682,7 +10159,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9690,16 +10167,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9707,16 +10184,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9724,10 +10201,10 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9735,10 +10212,10 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9746,7 +10223,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9754,16 +10231,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9771,16 +10248,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9788,7 +10265,7 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9796,7 +10273,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9804,7 +10281,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9862,7 +10339,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9870,25 +10347,25 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9896,25 +10373,25 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9922,25 +10399,25 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9948,25 +10425,25 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9974,25 +10451,25 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10000,19 +10477,19 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10020,19 +10497,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10040,19 +10517,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10060,19 +10537,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10135,7 +10612,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10143,13 +10620,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10157,13 +10634,13 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10171,13 +10648,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10185,13 +10662,13 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -10204,25 +10681,25 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10230,25 +10707,25 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10256,25 +10733,25 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10282,25 +10759,25 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10308,25 +10785,25 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10334,22 +10811,22 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10357,22 +10834,22 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10380,16 +10857,16 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10432,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10465,25 +10942,25 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10491,25 +10968,25 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10517,25 +10994,25 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10543,25 +11020,25 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10569,25 +11046,25 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -10645,7 +11122,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10653,22 +11130,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10676,22 +11153,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10699,19 +11176,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10719,16 +11196,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10736,13 +11213,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10750,16 +11227,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10767,16 +11244,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10784,13 +11261,13 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10798,13 +11275,13 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10812,13 +11289,13 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10826,13 +11303,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10840,13 +11317,13 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10854,13 +11331,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -10903,7 +11380,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10911,22 +11388,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10934,22 +11411,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10957,19 +11434,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10977,16 +11454,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10994,13 +11471,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11008,16 +11485,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11025,16 +11502,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11042,13 +11519,13 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11056,13 +11533,13 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11070,13 +11547,13 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11084,13 +11561,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11098,13 +11575,13 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11112,13 +11589,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -11161,7 +11638,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11169,22 +11646,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11192,22 +11669,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11215,19 +11692,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11235,16 +11712,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11252,13 +11729,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11266,16 +11743,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11283,16 +11760,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11300,13 +11777,13 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11314,13 +11791,13 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11328,13 +11805,13 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11342,13 +11819,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11356,13 +11833,13 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11370,13 +11847,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -11419,7 +11896,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11427,22 +11904,22 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11450,22 +11927,22 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11473,19 +11950,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11493,16 +11970,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11510,13 +11987,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11524,16 +12001,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11541,16 +12018,16 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11558,13 +12035,13 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11572,13 +12049,13 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11586,13 +12063,13 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11600,13 +12077,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11614,13 +12091,13 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11628,13 +12105,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/timeTableForStu12.xlsx
+++ b/timeTableForStu12.xlsx
@@ -9,32 +9,32 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Timetable" sheetId="2" r:id="rId2"/>
-    <sheet name="week1" sheetId="22" r:id="rId3"/>
-    <sheet name="week2" sheetId="23" r:id="rId4"/>
-    <sheet name="week3" sheetId="24" r:id="rId5"/>
-    <sheet name="week4" sheetId="25" r:id="rId6"/>
-    <sheet name="week5" sheetId="26" r:id="rId7"/>
-    <sheet name="week6" sheetId="27" r:id="rId8"/>
-    <sheet name="week7" sheetId="28" r:id="rId9"/>
-    <sheet name="week8" sheetId="29" r:id="rId10"/>
-    <sheet name="week9" sheetId="30" r:id="rId11"/>
-    <sheet name="week10" sheetId="31" r:id="rId12"/>
-    <sheet name="week11" sheetId="32" r:id="rId13"/>
-    <sheet name="week12" sheetId="33" r:id="rId14"/>
-    <sheet name="week13" sheetId="34" r:id="rId15"/>
-    <sheet name="week14" sheetId="35" r:id="rId16"/>
-    <sheet name="week15" sheetId="36" r:id="rId17"/>
-    <sheet name="week16" sheetId="37" r:id="rId18"/>
-    <sheet name="week17" sheetId="38" r:id="rId19"/>
-    <sheet name="week18" sheetId="39" r:id="rId20"/>
-    <sheet name="week19" sheetId="40" r:id="rId21"/>
+    <sheet name="week1" sheetId="3" r:id="rId6"/>
+    <sheet name="week2" sheetId="4" r:id="rId7"/>
+    <sheet name="week3" sheetId="5" r:id="rId8"/>
+    <sheet name="week4" sheetId="6" r:id="rId9"/>
+    <sheet name="week5" sheetId="7" r:id="rId10"/>
+    <sheet name="week6" sheetId="8" r:id="rId11"/>
+    <sheet name="week7" sheetId="9" r:id="rId12"/>
+    <sheet name="week8" sheetId="10" r:id="rId13"/>
+    <sheet name="week9" sheetId="11" r:id="rId14"/>
+    <sheet name="week10" sheetId="12" r:id="rId15"/>
+    <sheet name="week11" sheetId="13" r:id="rId16"/>
+    <sheet name="week12" sheetId="14" r:id="rId17"/>
+    <sheet name="week13" sheetId="15" r:id="rId18"/>
+    <sheet name="week14" sheetId="16" r:id="rId19"/>
+    <sheet name="week15" sheetId="17" r:id="rId20"/>
+    <sheet name="week16" sheetId="18" r:id="rId21"/>
+    <sheet name="week17" sheetId="19" r:id="rId22"/>
+    <sheet name="week18" sheetId="20" r:id="rId23"/>
+    <sheet name="week19" sheetId="21" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
   <si>
     <t>我的课程表</t>
   </si>
@@ -5270,235 +5270,217 @@
     <t>第13节</t>
   </si>
   <si>
-    <t>工程软件与程序设计[07]</t>
-  </si>
-  <si>
-    <t>认识实习</t>
-  </si>
-  <si>
-    <t>文献检索[04]</t>
-  </si>
-  <si>
-    <t>体育/太极拳[01]</t>
-  </si>
-  <si>
-    <t>大学物理AⅡ[18]</t>
-  </si>
-  <si>
-    <t>管理学概论[01]</t>
-  </si>
-  <si>
-    <t>体育/太极操[02]</t>
-  </si>
-  <si>
-    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]</t>
-  </si>
-  <si>
-    <t>基于FPGA平台的电信传输系统设计实验[01]</t>
-  </si>
-  <si>
-    <t>体育/八段锦[02]</t>
-  </si>
-  <si>
-    <t>数字电子技术基础B[03]</t>
-  </si>
-  <si>
-    <t>学术用途英语三级[02]</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[03]</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[04]</t>
-  </si>
-  <si>
-    <t>理论力学[02]</t>
-  </si>
-  <si>
-    <t>马克思主义基本原理[10]</t>
-  </si>
-  <si>
-    <t>中共党史[01]</t>
-  </si>
-  <si>
-    <t>中共党史[09]</t>
-  </si>
-  <si>
-    <t>Python程序设计基础[01]</t>
-  </si>
-  <si>
-    <t>复变函数与积分变换[02]</t>
-  </si>
-  <si>
-    <t>形势与政策Ⅲ[16]</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","position":"工训楼915"}</t>
-  </si>
-  <si>
-    <t>{"id":100320020,"name":"体育/太极拳[01]","position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","position":"工训楼811"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","position":"工训楼911"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100023100,"name":"复变函数与积分变换[02]","position":"文萃楼F402"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[01]","position":"综教A206"}</t>
-  </si>
-  <si>
-    <t>{"id":100960001,"name":"文献检索[04]","position":"理教楼409"}</t>
-  </si>
-  <si>
-    <t>{"id":100180121,"name":"大学物理AⅡ[18]","position":"理教楼306"}</t>
-  </si>
-  <si>
-    <t>{"id":100320045,"name":"体育/八段锦[02]","position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100245203,"name":"学术用途英语三级[02]","position":"文萃楼G124"}</t>
-  </si>
-  <si>
-    <t>{"id":100023215,"name":"理论力学[02]","position":"文萃楼M221"}</t>
-  </si>
-  <si>
-    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","position":"文萃楼M134"}</t>
-  </si>
-  <si>
-    <t>{"id":100210419,"name":"管理学概论[01]","position":"综教A305"}</t>
-  </si>
-  <si>
-    <t>{"id":100062108,"name":"数字电子技术基础B[03]","position":"文萃楼F604"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[03]","position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[09]","position":"理教楼204"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[04]","position":"良乡体育馆212"}</t>
-  </si>
-  <si>
-    <t>{"id":99900748,"name":"Python程序设计基础[01]","position":"理教楼106"}</t>
-  </si>
-  <si>
-    <t>{"id":100320042,"name":"体育/太极操[02]","position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100270025,"name":"马克思主义基本原理[10]","position":"文萃楼G125"}</t>
-  </si>
-  <si>
-    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","position":"文萃楼M228"}</t>
-  </si>
-  <si>
-    <t>认识实习%!(EXTRA string=
-, string=工训楼915)</t>
-  </si>
-  <si>
-    <t>体育/太极拳[01]%!(EXTRA string=
-, string=良乡体育馆407)</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]%!(EXTRA string=
-, string=文萃楼H226良乡六号机房)</t>
-  </si>
-  <si>
-    <t>基于FPGA平台的电信传输系统设计实验[01]%!(EXTRA string=
-, string=工训楼811)</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]%!(EXTRA string=
-, string=文萃楼H125良乡二号机房)</t>
-  </si>
-  <si>
-    <t>认识实习%!(EXTRA string=
-, string=工训楼911)</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]%!(EXTRA string=
-, string=文萃楼H229良乡七号机房)</t>
-  </si>
-  <si>
-    <t>复变函数与积分变换[02]%!(EXTRA string=
-, string=文萃楼F402)</t>
-  </si>
-  <si>
-    <t>中共党史[01]%!(EXTRA string=
-, string=综教A206)</t>
-  </si>
-  <si>
-    <t>文献检索[04]%!(EXTRA string=
-, string=理教楼409)</t>
-  </si>
-  <si>
-    <t>大学物理AⅡ[18]%!(EXTRA string=
-, string=理教楼306)</t>
-  </si>
-  <si>
-    <t>体育/八段锦[02]%!(EXTRA string=
-, string=良乡体育馆407)</t>
-  </si>
-  <si>
-    <t>学术用途英语三级[02]%!(EXTRA string=
-, string=文萃楼G124)</t>
-  </si>
-  <si>
-    <t>理论力学[02]%!(EXTRA string=
-, string=文萃楼M221)</t>
-  </si>
-  <si>
-    <t>形势与政策Ⅲ[16]%!(EXTRA string=
-, string=文萃楼M134)</t>
-  </si>
-  <si>
-    <t>管理学概论[01]%!(EXTRA string=
-, string=综教A305)</t>
-  </si>
-  <si>
-    <t>数字电子技术基础B[03]%!(EXTRA string=
-, string=文萃楼F604)</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[03]%!(EXTRA string=
-, string=良乡体育馆407)</t>
-  </si>
-  <si>
-    <t>中共党史[09]%!(EXTRA string=
-, string=理教楼204)</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[04]%!(EXTRA string=
-, string=良乡体育馆212)</t>
-  </si>
-  <si>
-    <t>Python程序设计基础[01]%!(EXTRA string=
-, string=理教楼106)</t>
-  </si>
-  <si>
-    <t>体育/太极操[02]%!(EXTRA string=
-, string=良乡体育馆407)</t>
-  </si>
-  <si>
-    <t>马克思主义基本原理[10]%!(EXTRA string=
-, string=文萃楼G125)</t>
-  </si>
-  <si>
-    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]%!(EXTRA string=
-, string=文萃楼M228)</t>
+    <t>{"id":100028010,"name":"认识实习","class":1,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":2,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":3,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":4,"position":"工训楼915"}</t>
+  </si>
+  <si>
+    <t>{"id":100320020,"name":"体育/太极拳[01]","class":1,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320020,"name":"体育/太极拳[01]","class":2,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":1,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":2,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":3,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":4,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":5,"position":"文萃楼H226良乡六号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":3,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":4,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":5,"position":"工训楼811"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H125良乡二号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":6,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":7,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":8,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100028010,"name":"认识实习","class":9,"position":"工训楼911"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H229良乡七号机房"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":8,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":9,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":10,"position":"文萃楼F402"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":11,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":12,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[01]","class":13,"position":"综教A206"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":11,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":12,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100960001,"name":"文献检索[04]","class":13,"position":"理教楼409"}</t>
+  </si>
+  <si>
+    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":1,"position":"理教楼306"}</t>
+  </si>
+  <si>
+    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":2,"position":"理教楼306"}</t>
+  </si>
+  <si>
+    <t>{"id":100320045,"name":"体育/八段锦[02]","class":3,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320045,"name":"体育/八段锦[02]","class":4,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":6,"position":"文萃楼G124"}</t>
+  </si>
+  <si>
+    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":7,"position":"文萃楼G124"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":8,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":9,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100023215,"name":"理论力学[02]","class":10,"position":"文萃楼M221"}</t>
+  </si>
+  <si>
+    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":11,"position":"文萃楼M134"}</t>
+  </si>
+  <si>
+    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":12,"position":"文萃楼M134"}</t>
+  </si>
+  <si>
+    <t>{"id":100210419,"name":"管理学概论[01]","class":1,"position":"综教A305"}</t>
+  </si>
+  <si>
+    <t>{"id":100210419,"name":"管理学概论[01]","class":2,"position":"综教A305"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":3,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":4,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":5,"position":"文萃楼F604"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":6,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":7,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":11,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":12,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100270028,"name":"中共党史[09]","class":13,"position":"理教楼204"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":6,"position":"良乡体育馆212"}</t>
+  </si>
+  <si>
+    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":7,"position":"良乡体育馆212"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":11,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":12,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":13,"position":"理教楼106"}</t>
+  </si>
+  <si>
+    <t>{"id":100320042,"name":"体育/太极操[02]","class":1,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100320042,"name":"体育/太极操[02]","class":2,"position":"良乡体育馆407"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":8,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":9,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":10,"position":"文萃楼G125"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":1,"position":"文萃楼M228"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":2,"position":"文萃楼M228"}</t>
+  </si>
+  <si>
+    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":3,"position":"文萃楼M228"}</t>
   </si>
   <si>
     <t>认识实习
@@ -5595,291 +5577,6 @@
   <si>
     <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]
 文萃楼M228</t>
-  </si>
-  <si>
-    <t>认识实习-工训楼915</t>
-  </si>
-  <si>
-    <t>体育/太极拳[01]-良乡体育馆407</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]-文萃楼H226良乡六号机房</t>
-  </si>
-  <si>
-    <t>基于FPGA平台的电信传输系统设计实验[01]-工训楼811</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]-文萃楼H125良乡二号机房</t>
-  </si>
-  <si>
-    <t>认识实习-工训楼911</t>
-  </si>
-  <si>
-    <t>工程软件与程序设计[07]-文萃楼H229良乡七号机房</t>
-  </si>
-  <si>
-    <t>复变函数与积分变换[02]-文萃楼F402</t>
-  </si>
-  <si>
-    <t>中共党史[01]-综教A206</t>
-  </si>
-  <si>
-    <t>文献检索[04]-理教楼409</t>
-  </si>
-  <si>
-    <t>大学物理AⅡ[18]-理教楼306</t>
-  </si>
-  <si>
-    <t>体育/八段锦[02]-良乡体育馆407</t>
-  </si>
-  <si>
-    <t>学术用途英语三级[02]-文萃楼G124</t>
-  </si>
-  <si>
-    <t>理论力学[02]-文萃楼M221</t>
-  </si>
-  <si>
-    <t>形势与政策Ⅲ[16]-文萃楼M134</t>
-  </si>
-  <si>
-    <t>管理学概论[01]-综教A305</t>
-  </si>
-  <si>
-    <t>数字电子技术基础B[03]-文萃楼F604</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[03]-良乡体育馆407</t>
-  </si>
-  <si>
-    <t>中共党史[09]-理教楼204</t>
-  </si>
-  <si>
-    <t>体育/太极八法五步[04]-良乡体育馆212</t>
-  </si>
-  <si>
-    <t>Python程序设计基础[01]-理教楼106</t>
-  </si>
-  <si>
-    <t>体育/太极操[02]-良乡体育馆407</t>
-  </si>
-  <si>
-    <t>马克思主义基本原理[10]-文萃楼G125</t>
-  </si>
-  <si>
-    <t>世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]-文萃楼M228</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":1,"position":"工训楼915"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":2,"position":"工训楼915"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":3,"position":"工训楼915"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":4,"position":"工训楼915"}</t>
-  </si>
-  <si>
-    <t>{"id":100320020,"name":"体育/太极拳[01]","class":1,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100320020,"name":"体育/太极拳[01]","class":2,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":1,"position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":2,"position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":3,"position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":4,"position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":5,"position":"文萃楼H226良乡六号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":3,"position":"工训楼811"}</t>
-  </si>
-  <si>
-    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":4,"position":"工训楼811"}</t>
-  </si>
-  <si>
-    <t>{"id":99900746,"name":"基于FPGA平台的电信传输系统设计实验[01]","class":5,"position":"工训楼811"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H125良乡二号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":6,"position":"工训楼911"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":7,"position":"工训楼911"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":8,"position":"工训楼911"}</t>
-  </si>
-  <si>
-    <t>{"id":100028010,"name":"认识实习","class":9,"position":"工训楼911"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":6,"position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":7,"position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":8,"position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":9,"position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100025132,"name":"工程软件与程序设计[07]","class":10,"position":"文萃楼H229良乡七号机房"}</t>
-  </si>
-  <si>
-    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":8,"position":"文萃楼F402"}</t>
-  </si>
-  <si>
-    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":9,"position":"文萃楼F402"}</t>
-  </si>
-  <si>
-    <t>{"id":100023100,"name":"复变函数与积分变换[02]","class":10,"position":"文萃楼F402"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[01]","class":11,"position":"综教A206"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[01]","class":12,"position":"综教A206"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[01]","class":13,"position":"综教A206"}</t>
-  </si>
-  <si>
-    <t>{"id":100960001,"name":"文献检索[04]","class":11,"position":"理教楼409"}</t>
-  </si>
-  <si>
-    <t>{"id":100960001,"name":"文献检索[04]","class":12,"position":"理教楼409"}</t>
-  </si>
-  <si>
-    <t>{"id":100960001,"name":"文献检索[04]","class":13,"position":"理教楼409"}</t>
-  </si>
-  <si>
-    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":1,"position":"理教楼306"}</t>
-  </si>
-  <si>
-    <t>{"id":100180121,"name":"大学物理AⅡ[18]","class":2,"position":"理教楼306"}</t>
-  </si>
-  <si>
-    <t>{"id":100320045,"name":"体育/八段锦[02]","class":3,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100320045,"name":"体育/八段锦[02]","class":4,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":6,"position":"文萃楼G124"}</t>
-  </si>
-  <si>
-    <t>{"id":100245203,"name":"学术用途英语三级[02]","class":7,"position":"文萃楼G124"}</t>
-  </si>
-  <si>
-    <t>{"id":100023215,"name":"理论力学[02]","class":8,"position":"文萃楼M221"}</t>
-  </si>
-  <si>
-    <t>{"id":100023215,"name":"理论力学[02]","class":9,"position":"文萃楼M221"}</t>
-  </si>
-  <si>
-    <t>{"id":100023215,"name":"理论力学[02]","class":10,"position":"文萃楼M221"}</t>
-  </si>
-  <si>
-    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":11,"position":"文萃楼M134"}</t>
-  </si>
-  <si>
-    <t>{"id":100270016,"name":"形势与政策Ⅲ[16]","class":12,"position":"文萃楼M134"}</t>
-  </si>
-  <si>
-    <t>{"id":100210419,"name":"管理学概论[01]","class":1,"position":"综教A305"}</t>
-  </si>
-  <si>
-    <t>{"id":100210419,"name":"管理学概论[01]","class":2,"position":"综教A305"}</t>
-  </si>
-  <si>
-    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":3,"position":"文萃楼F604"}</t>
-  </si>
-  <si>
-    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":4,"position":"文萃楼F604"}</t>
-  </si>
-  <si>
-    <t>{"id":100062108,"name":"数字电子技术基础B[03]","class":5,"position":"文萃楼F604"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":6,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[03]","class":7,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[09]","class":11,"position":"理教楼204"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[09]","class":12,"position":"理教楼204"}</t>
-  </si>
-  <si>
-    <t>{"id":100270028,"name":"中共党史[09]","class":13,"position":"理教楼204"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":6,"position":"良乡体育馆212"}</t>
-  </si>
-  <si>
-    <t>{"id":100320070,"name":"体育/太极八法五步[04]","class":7,"position":"良乡体育馆212"}</t>
-  </si>
-  <si>
-    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":11,"position":"理教楼106"}</t>
-  </si>
-  <si>
-    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":12,"position":"理教楼106"}</t>
-  </si>
-  <si>
-    <t>{"id":99900748,"name":"Python程序设计基础[01]","class":13,"position":"理教楼106"}</t>
-  </si>
-  <si>
-    <t>{"id":100320042,"name":"体育/太极操[02]","class":1,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100320042,"name":"体育/太极操[02]","class":2,"position":"良乡体育馆407"}</t>
-  </si>
-  <si>
-    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":8,"position":"文萃楼G125"}</t>
-  </si>
-  <si>
-    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":9,"position":"文萃楼G125"}</t>
-  </si>
-  <si>
-    <t>{"id":100270025,"name":"马克思主义基本原理[10]","class":10,"position":"文萃楼G125"}</t>
-  </si>
-  <si>
-    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":1,"position":"文萃楼M228"}</t>
-  </si>
-  <si>
-    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":2,"position":"文萃楼M228"}</t>
-  </si>
-  <si>
-    <t>{"id":99911146,"name":"世界艺术鉴赏：艺术，摄影，展览和现代博物馆[01]","class":3,"position":"文萃楼M228"}</t>
   </si>
 </sst>
 </file>
@@ -7492,17 +7189,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -7528,263 +7221,260 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -7810,251 +7500,248 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8080,251 +7767,242 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
-  <cols>
-    <col customWidth="true" max="2" min="2" width="24.2222222222222"/>
-    <col customWidth="true" max="3" min="3" width="30.2222222222222"/>
-    <col customWidth="true" max="4" min="4" width="46.2222222222222"/>
-    <col customWidth="true" max="5" min="5" width="50.1111111111111"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8350,245 +8028,242 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8614,215 +8289,215 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8848,215 +8523,215 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9082,215 +8757,215 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9316,179 +8991,173 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9514,161 +9183,155 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9694,146 +9357,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9843,7 +9504,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -9946,17 +9607,13 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9982,161 +9639,155 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -10162,161 +9813,155 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -10342,254 +9987,248 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -10615,278 +10254,272 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -10912,194 +10545,188 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11125,239 +10752,236 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11383,239 +11007,236 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11641,239 +11262,236 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11899,223 +11517,224 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>